--- a/PMIS Files/Track/Weekly Contribution.xlsx
+++ b/PMIS Files/Track/Weekly Contribution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Group Project\Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Group Project\PMIS\PMIS Files\Track\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA99B0A-7CD2-4B9F-AAB1-4DD502D6F204}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E352D42-FE3C-4BF8-8397-0B50D9AE9269}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="2180" windowWidth="12710" windowHeight="7360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -643,42 +643,81 @@
       <c r="A4" s="5">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="6">
+        <v>44260</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.2</v>
+      </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="6">
+        <v>44267</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.2</v>
+      </c>
       <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>9</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="6">
+        <v>44275</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.2</v>
+      </c>
       <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -766,7 +805,7 @@
       </c>
       <c r="I12" s="2">
         <f>SUM(I2:I10)/COUNT(I2:I10)</f>
-        <v>0.22222222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
   </sheetData>
